--- a/gropin/schema/metadataschema23.xlsx
+++ b/gropin/schema/metadataschema23.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Gropin Model Nr. 23</t>
+          <t>Gropin growth model for Aeromonas hydrophila in/on modified BHI (gropin ID: 23 )</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>gropinGRT23</t>
+          <t>gropinID23</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>Academic Free License 3.0</t>
         </is>
       </c>
     </row>
@@ -5119,17 +5119,17 @@
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>no idea</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>dummy unit category</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>Vector[number]</t>
         </is>
       </c>
       <c r="S133" t="inlineStr">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(4.004,11.988,length.out=21)</t>
+          <t>seq(4,12,length.out=21)</t>
         </is>
       </c>
     </row>
@@ -5196,17 +5196,17 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>no idea</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>dummy unit category</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>Vector[number]</t>
         </is>
       </c>
       <c r="S134" t="inlineStr">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>seq(0.974974,0.991008,length.out=21)</t>
+          <t>seq(0.974,0.992,length.out=21)</t>
         </is>
       </c>
     </row>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>Input</t>
+          <t>Constant</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -5268,17 +5268,17 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>no idea</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>dummy unit category</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>Double</t>
         </is>
       </c>
       <c r="S135" t="inlineStr">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>Input</t>
+          <t>Constant</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -5340,17 +5340,17 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>no idea</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>dummy unit category</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>Double</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>Input</t>
+          <t>Constant</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -5417,17 +5417,17 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>no idea</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>dummy unit category</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>Double</t>
         </is>
       </c>
       <c r="S137" t="inlineStr">

--- a/gropin/schema/metadataschema23.xlsx
+++ b/gropin/schema/metadataschema23.xlsx
@@ -984,6 +984,41 @@
           <t>gropinID23</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Marcel</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Fuhrmann</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>BfR</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>marcel.fuhrmann@bfr.bund.de</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>F.</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Devlieghere</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>none given</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1016,6 +1051,21 @@
           <t>vCard</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>I.</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Lefevere</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>none given</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1048,6 +1098,21 @@
           <t>vCard</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>A.</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>Magnin</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>none given</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1080,6 +1145,21 @@
           <t>Date</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>J.</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Debevere</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>none given</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1406,6 +1486,31 @@
           <t>RIS</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>none given</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Devlieghere,  F.,  Lefevere,  I.,  Magnin,  A.,  Debevere,  J.</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Growth of Aeromonas hydrophila in modified-atmosphere-packed cooked meat products</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Food Microbiology ,  17,185-196</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1707,6 +1812,11 @@
           <t>String</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>QRA model</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1824,6 +1934,11 @@
           <t>String</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This model predicts and visualize the mu_max of Aeromonas hydrophila in modified BHI with the independent variable(s) T, aw according to the publication from Devlieghere, F., Lefevere, I., Magnin, A., Debevere, J., 2000 on Growth of Aeromonas hydrophila in modified-atmosphere-packed cooked meat products. </t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1846,6 +1961,11 @@
           <t>String</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>This model and all metadata included have been automatically generated from the GroPIN microbial modelling DataBase (https://www.aua.gr/psomas/gropin/, version 2020). The model code has been converted from Excel to R and the model itself is provided as an FSKX file. This FSKX model contains also an R script to visualize model-based prediction results similar to those visualizations provided by the GroPIN software. A user of the FSKX model can provide user-defined values for all model input parameters, some of them specifically introduced to customize the generated visualization.</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2349,6 +2469,26 @@
           <t>String</t>
         </is>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>modified BHI</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>none given</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Aeromonas hydrophila</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>log10(CFU)</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5109,22 +5249,22 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>my dummy description</t>
+          <t>descr Temperature</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>no idea</t>
+          <t>C</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>dummy unit category</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -5132,24 +5272,9 @@
           <t>Vector[number]</t>
         </is>
       </c>
-      <c r="S133" t="inlineStr">
-        <is>
-          <t>my source</t>
-        </is>
-      </c>
-      <c r="T133" t="inlineStr">
-        <is>
-          <t>my subject</t>
-        </is>
-      </c>
-      <c r="U133" t="inlineStr">
-        <is>
-          <t>mydist</t>
-        </is>
-      </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(4,12,length.out=21)</t>
+          <t>seq(3.996003996004,12.012,length.out=21)</t>
         </is>
       </c>
     </row>
@@ -5186,22 +5311,22 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>aw</t>
+          <t>water activity</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>my dummy description</t>
+          <t>descr water activity</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>no idea</t>
+          <t>[%]</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>dummy unit category</t>
+          <t>Dimensionless Parameter</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -5209,24 +5334,9 @@
           <t>Vector[number]</t>
         </is>
       </c>
-      <c r="S134" t="inlineStr">
-        <is>
-          <t>my source</t>
-        </is>
-      </c>
-      <c r="T134" t="inlineStr">
-        <is>
-          <t>my subject</t>
-        </is>
-      </c>
-      <c r="U134" t="inlineStr">
-        <is>
-          <t>mydist</t>
-        </is>
-      </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>seq(0.974,0.992,length.out=21)</t>
+          <t>seq(0.973026973026973,0.992992,length.out=21)</t>
         </is>
       </c>
     </row>
@@ -5248,57 +5358,35 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>mumax</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>Constant</t>
+          <t>Output</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>data frame with variables and corresponding mumax</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>my dummy description</t>
+          <t>This dataframe consists of a number of columns 
+                            in relation to the number of variables of this
+                            model. One additional column contains the response
+                            surface mu_max result based on this secondary model.</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>no idea</t>
-        </is>
-      </c>
-      <c r="Q135" t="inlineStr">
-        <is>
-          <t>dummy unit category</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Double</t>
-        </is>
-      </c>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>my source</t>
-        </is>
-      </c>
-      <c r="T135" t="inlineStr">
-        <is>
-          <t>my subject</t>
-        </is>
-      </c>
-      <c r="U135" t="inlineStr">
-        <is>
-          <t>mydist</t>
-        </is>
-      </c>
-      <c r="V135" t="inlineStr">
-        <is>
-          <t>0.032</t>
+          <t>Matrix[number,number]</t>
         </is>
       </c>
     </row>
@@ -5318,59 +5406,9 @@
           <t>0:1</t>
         </is>
       </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>awmin</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>Constant</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>awmin</t>
-        </is>
-      </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>my dummy description</t>
-        </is>
-      </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>no idea</t>
-        </is>
-      </c>
-      <c r="Q136" t="inlineStr">
-        <is>
-          <t>dummy unit category</t>
-        </is>
-      </c>
-      <c r="R136" t="inlineStr">
-        <is>
-          <t>Double</t>
-        </is>
-      </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>my source</t>
-        </is>
-      </c>
-      <c r="T136" t="inlineStr">
-        <is>
-          <t>my subject</t>
-        </is>
-      </c>
-      <c r="U136" t="inlineStr">
-        <is>
-          <t>mydist</t>
-        </is>
-      </c>
-      <c r="V136" t="inlineStr">
-        <is>
-          <t>0.9718</t>
+          <t>Add</t>
         </is>
       </c>
     </row>
@@ -5395,59 +5433,9 @@
           <t>String</t>
         </is>
       </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>Tmin</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>Constant</t>
-        </is>
-      </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>Tmin</t>
-        </is>
-      </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>my dummy description</t>
-        </is>
-      </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>no idea</t>
-        </is>
-      </c>
-      <c r="Q137" t="inlineStr">
-        <is>
-          <t>dummy unit category</t>
-        </is>
-      </c>
-      <c r="R137" t="inlineStr">
-        <is>
-          <t>Double</t>
-        </is>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>my source</t>
-        </is>
-      </c>
-      <c r="T137" t="inlineStr">
-        <is>
-          <t>my subject</t>
-        </is>
-      </c>
-      <c r="U137" t="inlineStr">
-        <is>
-          <t>mydist</t>
-        </is>
-      </c>
-      <c r="V137" t="inlineStr">
-        <is>
-          <t>-5.25</t>
+          <t>Add</t>
         </is>
       </c>
     </row>

--- a/gropin/schema/metadataschema23.xlsx
+++ b/gropin/schema/metadataschema23.xlsx
@@ -5274,7 +5274,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(3.996003996004,12.012,length.out=21)</t>
+          <t>seq(4.004,11.988011988012,length.out=21)</t>
         </is>
       </c>
     </row>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>seq(0.973026973026973,0.992992,length.out=21)</t>
+          <t>seq(0.974974,0.991008991008991,length.out=21)</t>
         </is>
       </c>
     </row>
@@ -5374,8 +5374,8 @@
       <c r="O135" t="inlineStr">
         <is>
           <t>This dataframe consists of a number of columns 
-                            in relation to the number of variables of this
-                            model. One additional column contains the response
+                            in relation to the number of variables of this 
+                            model. One additional column contains the response 
                             surface mu_max result based on this secondary model.</t>
         </is>
       </c>

--- a/gropin/schema/metadataschema23.xlsx
+++ b/gropin/schema/metadataschema23.xlsx
@@ -1511,6 +1511,11 @@
           <t>Food Microbiology ,  17,185-196</t>
         </is>
       </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Food Microbiology ,  17,185-196</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1753,6 +1758,11 @@
           <t>String</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5358,7 +5368,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>mumax</t>
+          <t>responseSurface</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
